--- a/Rabu/Statistika/Minggu 3 - Distribusi Frekuensi/tugas/tugas.xlsx
+++ b/Rabu/Statistika/Minggu 3 - Distribusi Frekuensi/tugas/tugas.xlsx
@@ -1,26 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Rabu\Statistika\Minggu 3 - Distribusi Frekuensi\tugas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="berwarna" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -30,19 +20,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
     <t>Kelas</t>
-  </si>
-  <si>
-    <t>Panjang</t>
   </si>
   <si>
     <t>F</t>
@@ -63,6 +41,9 @@
     <t>FK</t>
   </si>
   <si>
+    <t>FR</t>
+  </si>
+  <si>
     <t>FK&lt;</t>
   </si>
   <si>
@@ -75,54 +56,213 @@
     <t>FR&gt;</t>
   </si>
   <si>
-    <t>FR</t>
+    <t>Max</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Panjang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,19 +277,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,12 +307,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -176,64 +502,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -241,112 +543,433 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -356,8 +979,8 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -366,17 +989,7 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -386,128 +999,8 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -516,9 +1009,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -567,7 +1057,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,7 +1092,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,65 +1266,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:AC16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="11" width="3.7109375" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" customWidth="1"/>
-    <col min="17" max="17" width="1.85546875" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" customWidth="1"/>
-    <col min="19" max="28" width="5.7109375" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.71428571428571" customWidth="1"/>
+    <col min="2" max="11" width="3.71428571428571" customWidth="1"/>
+    <col min="12" max="12" width="5.71428571428571" customWidth="1"/>
+    <col min="14" max="14" width="8.28571428571429" customWidth="1"/>
+    <col min="16" max="16" width="3.71428571428571" customWidth="1"/>
+    <col min="17" max="17" width="1.85714285714286" customWidth="1"/>
+    <col min="18" max="18" width="3.71428571428571" customWidth="1"/>
+    <col min="19" max="28" width="5.71428571428571" customWidth="1"/>
+    <col min="29" max="29" width="7.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+    <row r="2" ht="15.75" spans="2:29">
+      <c r="B2" s="1">
         <v>55</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>48</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>22</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>49</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>78</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>59</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>27</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>41</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>68</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="1">
         <v>54</v>
       </c>
       <c r="M2" t="s">
@@ -844,630 +1329,632 @@
         <f>COUNTA(B2:K6)</f>
         <v>50</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="9" t="s">
+      <c r="V2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="X2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="Y2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="Z2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="AA2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AB2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AC2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="4" t="s">
+    </row>
+    <row r="3" ht="15.75" spans="2:29">
+      <c r="B3" s="1">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1">
+        <v>76</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1">
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
         <v>13</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>80</v>
-      </c>
-      <c r="D3" s="3">
-        <v>68</v>
-      </c>
-      <c r="E3" s="3">
-        <v>42</v>
-      </c>
-      <c r="F3" s="3">
-        <v>73</v>
-      </c>
-      <c r="G3" s="3">
-        <v>51</v>
-      </c>
-      <c r="H3" s="3">
-        <v>76</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45</v>
-      </c>
-      <c r="J3" s="3">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3">
-        <v>53</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1</v>
       </c>
       <c r="N3">
         <f>MAX(B2:K6)</f>
         <v>86</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="30">
         <v>22</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="13">
+      <c r="Q3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="32">
         <f>P3+10</f>
         <v>32</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="14">
         <f t="array" ref="S3:S8">FREQUENCY(B2:K6,R3:R8)</f>
         <v>7</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="15">
         <f t="shared" ref="T3:T8" si="0">P3</f>
         <v>22</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="15">
         <f t="shared" ref="U3:U8" si="1">R3</f>
         <v>32</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="15">
         <f t="shared" ref="V3:V8" si="2">P3-0.5</f>
         <v>21.5</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="15">
         <f t="shared" ref="W3:W8" si="3">R3+0.5</f>
         <v>32.5</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="15">
         <f>S3</f>
         <v>7</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="26">
         <f t="shared" ref="Y3:Y8" si="4">S3/$S$9*100%</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Z3" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="Z3" s="15">
         <v>0</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="15">
         <f>X8</f>
         <v>50</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="26">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+    <row r="4" ht="15.75" spans="2:29">
+      <c r="B4" s="1">
         <v>66</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>64</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>47</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>76</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>58</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>75</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>60</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>35</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <f>MIN(B2:K6)</f>
         <v>22</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="30">
         <f>R3+1</f>
         <v>33</v>
       </c>
-      <c r="Q4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="13">
+      <c r="Q4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="32">
         <f>P4+10</f>
         <v>43</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="14">
         <v>6</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="15">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="15">
         <f t="shared" si="2"/>
         <v>32.5</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="15">
         <f t="shared" si="3"/>
         <v>43.5</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="15">
         <f>X3+S4</f>
         <v>13</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="26">
         <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="15">
         <f>S3</f>
         <v>7</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="15">
         <f>AA3-S3</f>
         <v>43</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="27">
         <f>Y3+AB3</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC4" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="AC4" s="26">
         <f>AC3-Y3</f>
         <v>0.86</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+    <row r="5" ht="15.75" spans="2:29">
+      <c r="B5" s="1">
         <v>73</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>38</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>44</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>54</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>57</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>72</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>67</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>51</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N5">
         <f>N3-N4</f>
         <v>64</v>
       </c>
-      <c r="P5" s="12">
-        <f t="shared" ref="P5:P7" si="5">R4+1</f>
+      <c r="P5" s="30">
+        <f t="shared" ref="P5:P8" si="5">R4+1</f>
         <v>44</v>
       </c>
-      <c r="Q5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="13">
-        <f t="shared" ref="R5:R7" si="6">P5+10</f>
+      <c r="Q5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="32">
+        <f t="shared" ref="R5:R8" si="6">P5+10</f>
         <v>54</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="14">
         <v>12</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="15">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="15">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="15">
         <f t="shared" si="2"/>
         <v>43.5</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="15">
         <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
-      <c r="X5" s="5">
-        <f t="shared" ref="X5:X7" si="7">X4+S5</f>
+      <c r="X5" s="15">
+        <f t="shared" ref="X5:X8" si="7">X4+S5</f>
         <v>25</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="26">
         <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="15">
         <f>S4+Z4</f>
         <v>13</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="15">
         <f t="shared" ref="AA5:AA8" si="8">AA4-S4</f>
         <v>37</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="27">
         <f t="shared" ref="AB5:AB8" si="9">Y4+AB4</f>
         <v>0.26</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="26">
         <f t="shared" ref="AC5:AC8" si="10">AC4-Y4</f>
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+    <row r="6" ht="15.75" spans="2:29">
+      <c r="B6" s="1">
         <v>25</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>37</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>69</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>71</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>52</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>47</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>63</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>59</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <f>1+(3.3 * LOG(N2))</f>
-        <v>6.6066010143088612</v>
-      </c>
-      <c r="P6" s="12">
+        <f>1+(3.3*LOG(N2))</f>
+        <v>6.60660101430886</v>
+      </c>
+      <c r="P6" s="30">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="13">
+      <c r="Q6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="32">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="14">
         <v>10</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="15">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="15">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="15">
         <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="15">
         <f t="shared" si="3"/>
         <v>65.5</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="15">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="26">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="15">
         <f t="shared" ref="Z6:Z8" si="11">S5+Z5</f>
         <v>25</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="15">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="27">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="26">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" spans="13:29">
       <c r="M7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <f>N5/N6</f>
-        <v>9.687280927270475</v>
-      </c>
-      <c r="P7" s="12">
+        <v>9.68728092727047</v>
+      </c>
+      <c r="P7" s="30">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="Q7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="13">
+      <c r="Q7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="32">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="14">
         <v>12</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="15">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="15">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="15">
         <f t="shared" si="2"/>
         <v>65.5</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="15">
         <f t="shared" si="3"/>
         <v>76.5</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="15">
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="26">
         <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="15">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="15">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="27">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="26">
         <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P8" s="10">
-        <f>R7+1</f>
+    <row r="8" ht="15.75" spans="16:29">
+      <c r="P8" s="31">
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="Q8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="11">
-        <f>P8+10</f>
+      <c r="Q8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="33">
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="14">
         <v>3</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="15">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="15">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="15">
         <f t="shared" si="2"/>
         <v>76.5</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="15">
         <f t="shared" si="3"/>
         <v>87.5</v>
       </c>
-      <c r="X8" s="5">
-        <f>X7+S8</f>
+      <c r="X8" s="15">
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="26">
         <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="15">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="15">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="27">
         <f t="shared" si="9"/>
         <v>0.94</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="26">
         <f t="shared" si="10"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="19:25">
       <c r="S9">
         <f>SUM(S3:S8)</f>
         <v>50</v>
       </c>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y12" s="1"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y13" s="1"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y14" s="1"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y15" s="1"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y16" s="1"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="1"/>
+      <c r="Y9" s="28"/>
+    </row>
+    <row r="11" spans="25:29">
+      <c r="Y11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+    </row>
+    <row r="12" spans="25:29">
+      <c r="Y12" s="29"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="29"/>
+    </row>
+    <row r="13" spans="25:29">
+      <c r="Y13" s="29"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="29"/>
+    </row>
+    <row r="14" spans="25:29">
+      <c r="Y14" s="29"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="29"/>
+    </row>
+    <row r="15" spans="25:29">
+      <c r="Y15" s="29"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="29"/>
+    </row>
+    <row r="16" spans="25:29">
+      <c r="Y16" s="29"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC9" sqref="P2:AC9"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="11" width="3.7109375" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" customWidth="1"/>
-    <col min="17" max="17" width="1.85546875" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" customWidth="1"/>
-    <col min="19" max="28" width="5.7109375" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.71428571428571" customWidth="1"/>
+    <col min="2" max="11" width="3.71428571428571" customWidth="1"/>
+    <col min="12" max="12" width="5.71428571428571" customWidth="1"/>
+    <col min="14" max="14" width="8.28571428571429" customWidth="1"/>
+    <col min="16" max="16" width="3.71428571428571" customWidth="1"/>
+    <col min="17" max="17" width="1.85714285714286" customWidth="1"/>
+    <col min="18" max="18" width="3.71428571428571" customWidth="1"/>
+    <col min="19" max="28" width="5.71428571428571" customWidth="1"/>
+    <col min="29" max="29" width="7.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+    <row r="2" ht="15.75" spans="2:29">
+      <c r="B2" s="1">
         <v>55</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>48</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>22</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>49</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>78</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>59</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>27</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>41</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>68</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="1">
         <v>54</v>
       </c>
       <c r="M2" t="s">
@@ -1477,577 +1964,577 @@
         <f>COUNTA(B2:K6)</f>
         <v>50</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="15" t="s">
+      <c r="V2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="X2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="Y2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="Z2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="AA2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AB2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AC2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="4" t="s">
+    </row>
+    <row r="3" ht="15.75" spans="2:29">
+      <c r="B3" s="1">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1">
+        <v>76</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1">
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
         <v>13</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>80</v>
-      </c>
-      <c r="D3" s="3">
-        <v>68</v>
-      </c>
-      <c r="E3" s="3">
-        <v>42</v>
-      </c>
-      <c r="F3" s="3">
-        <v>73</v>
-      </c>
-      <c r="G3" s="3">
-        <v>51</v>
-      </c>
-      <c r="H3" s="3">
-        <v>76</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45</v>
-      </c>
-      <c r="J3" s="3">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3">
-        <v>53</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1</v>
       </c>
       <c r="N3">
         <f>MAX(B2:K6)</f>
         <v>86</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="3">
         <v>22</v>
       </c>
-      <c r="Q3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="21">
+      <c r="Q3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="13">
         <f>P3+10</f>
         <v>32</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="14">
         <f t="array" ref="S3:S8">FREQUENCY(B2:K6,R3:R8)</f>
         <v>7</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="15">
         <f t="shared" ref="T3:T8" si="0">P3</f>
         <v>22</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="15">
         <f t="shared" ref="U3:U8" si="1">R3</f>
         <v>32</v>
       </c>
-      <c r="V3" s="5">
-        <f t="shared" ref="V3:V8" si="2">P3-0.5</f>
+      <c r="V3" s="15">
+        <f>P3-0.5</f>
         <v>21.5</v>
       </c>
-      <c r="W3" s="5">
-        <f t="shared" ref="W3:W8" si="3">R3+0.5</f>
+      <c r="W3" s="15">
+        <f t="shared" ref="W3:W8" si="2">R3+0.5</f>
         <v>32.5</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="15">
         <f>S3</f>
         <v>7</v>
       </c>
-      <c r="Y3" s="7">
-        <f t="shared" ref="Y3:Y8" si="4">S3/$S$9*100%</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Z3" s="5">
+      <c r="Y3" s="26">
+        <f t="shared" ref="Y3:Y8" si="3">S3/$S$9*100%</f>
+        <v>0.14</v>
+      </c>
+      <c r="Z3" s="15">
         <v>0</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="15">
         <f>X8</f>
         <v>50</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="26">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+    <row r="4" ht="15.75" spans="2:29">
+      <c r="B4" s="1">
         <v>66</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>64</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>47</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>76</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>58</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>75</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>60</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>35</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <f>MIN(B2:K6)</f>
         <v>22</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="4">
         <f>R3+1</f>
         <v>33</v>
       </c>
-      <c r="Q4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="24">
+      <c r="Q4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="17">
         <f>P4+10</f>
         <v>43</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="14">
         <v>6</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="15">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="15">
+        <f t="shared" ref="V3:V8" si="4">P4-0.5</f>
+        <v>32.5</v>
+      </c>
+      <c r="W4" s="15">
         <f t="shared" si="2"/>
-        <v>32.5</v>
-      </c>
-      <c r="W4" s="5">
-        <f t="shared" si="3"/>
         <v>43.5</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="15">
         <f>X3+S4</f>
         <v>13</v>
       </c>
-      <c r="Y4" s="7">
-        <f t="shared" si="4"/>
+      <c r="Y4" s="26">
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="15">
         <f>S3</f>
         <v>7</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="15">
         <f>AA3-S3</f>
         <v>43</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="27">
         <f>Y3+AB3</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC4" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="AC4" s="26">
         <f>AC3-Y3</f>
         <v>0.86</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+    <row r="5" ht="15.75" spans="2:29">
+      <c r="B5" s="1">
         <v>73</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>38</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>44</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>54</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>57</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>72</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>67</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>51</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N5">
         <f>N3-N4</f>
         <v>64</v>
       </c>
-      <c r="P5" s="25">
-        <f t="shared" ref="P5:P7" si="5">R4+1</f>
+      <c r="P5" s="5">
+        <f t="shared" ref="P5:P8" si="5">R4+1</f>
         <v>44</v>
       </c>
-      <c r="Q5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="27">
-        <f t="shared" ref="R5:R7" si="6">P5+10</f>
+      <c r="Q5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="19">
+        <f t="shared" ref="R5:R8" si="6">P5+10</f>
         <v>54</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="14">
         <v>12</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="15">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="15">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="15">
+        <f t="shared" si="4"/>
+        <v>43.5</v>
+      </c>
+      <c r="W5" s="15">
         <f t="shared" si="2"/>
-        <v>43.5</v>
-      </c>
-      <c r="W5" s="5">
+        <v>54.5</v>
+      </c>
+      <c r="X5" s="15">
+        <f t="shared" ref="X5:X8" si="7">X4+S5</f>
+        <v>25</v>
+      </c>
+      <c r="Y5" s="26">
         <f t="shared" si="3"/>
-        <v>54.5</v>
-      </c>
-      <c r="X5" s="5">
-        <f t="shared" ref="X5:X7" si="7">X4+S5</f>
-        <v>25</v>
-      </c>
-      <c r="Y5" s="7">
-        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="15">
         <f>S4+Z4</f>
         <v>13</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="15">
         <f t="shared" ref="AA5:AA8" si="8">AA4-S4</f>
         <v>37</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="27">
         <f t="shared" ref="AB5:AB8" si="9">Y4+AB4</f>
         <v>0.26</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="26">
         <f t="shared" ref="AC5:AC8" si="10">AC4-Y4</f>
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+    <row r="6" ht="15.75" spans="2:29">
+      <c r="B6" s="1">
         <v>25</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>37</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>69</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>71</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>52</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>47</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>63</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>59</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <f>1+(3.3 * LOG(N2))</f>
-        <v>6.6066010143088612</v>
-      </c>
-      <c r="P6" s="28">
+        <f>1+(3.3*LOG(N2))</f>
+        <v>6.60660101430886</v>
+      </c>
+      <c r="P6" s="6">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="Q6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="30">
+      <c r="Q6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="21">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="14">
         <v>10</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="15">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="15">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="15">
+        <f t="shared" si="4"/>
+        <v>54.5</v>
+      </c>
+      <c r="W6" s="15">
         <f t="shared" si="2"/>
-        <v>54.5</v>
-      </c>
-      <c r="W6" s="5">
-        <f t="shared" si="3"/>
         <v>65.5</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="15">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="Y6" s="7">
-        <f t="shared" si="4"/>
+      <c r="Y6" s="26">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="15">
         <f t="shared" ref="Z6:Z8" si="11">S5+Z5</f>
         <v>25</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="15">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="27">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="26">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" spans="13:29">
       <c r="M7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <f>N5/N6</f>
-        <v>9.687280927270475</v>
-      </c>
-      <c r="P7" s="31">
+        <v>9.68728092727047</v>
+      </c>
+      <c r="P7" s="7">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="Q7" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="33">
+      <c r="Q7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="23">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="14">
         <v>12</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="15">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="15">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="15">
+        <f t="shared" si="4"/>
+        <v>65.5</v>
+      </c>
+      <c r="W7" s="15">
         <f t="shared" si="2"/>
-        <v>65.5</v>
-      </c>
-      <c r="W7" s="5">
-        <f t="shared" si="3"/>
         <v>76.5</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="15">
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
-      <c r="Y7" s="7">
-        <f t="shared" si="4"/>
+      <c r="Y7" s="26">
+        <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="15">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="15">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="27">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="26">
         <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P8" s="34">
-        <f>R7+1</f>
+    <row r="8" ht="15.75" spans="16:29">
+      <c r="P8" s="8">
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="Q8" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="36">
-        <f>P8+10</f>
+      <c r="Q8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="25">
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="14">
         <v>3</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="15">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="15">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="15">
+        <f t="shared" si="4"/>
+        <v>76.5</v>
+      </c>
+      <c r="W8" s="15">
         <f t="shared" si="2"/>
-        <v>76.5</v>
-      </c>
-      <c r="W8" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="X8" s="15">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="Y8" s="26">
         <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-      <c r="X8" s="5">
-        <f>X7+S8</f>
-        <v>50</v>
-      </c>
-      <c r="Y8" s="7">
-        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="15">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="15">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="27">
         <f t="shared" si="9"/>
         <v>0.94</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="26">
         <f t="shared" si="10"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="19:25">
       <c r="S9">
         <f>SUM(S3:S8)</f>
         <v>50</v>
       </c>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y12" s="1"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y13" s="1"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y14" s="1"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y15" s="1"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="Y16" s="1"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="1"/>
+      <c r="Y9" s="28"/>
+    </row>
+    <row r="11" spans="25:29">
+      <c r="Y11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+    </row>
+    <row r="12" spans="25:29">
+      <c r="Y12" s="29"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="29"/>
+    </row>
+    <row r="13" spans="25:29">
+      <c r="Y13" s="29"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="29"/>
+    </row>
+    <row r="14" spans="25:29">
+      <c r="Y14" s="29"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="29"/>
+    </row>
+    <row r="15" spans="25:29">
+      <c r="Y15" s="29"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="29"/>
+    </row>
+    <row r="16" spans="25:29">
+      <c r="Y16" s="29"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="P2:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:K6">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
       <formula>22</formula>
       <formula>32</formula>
     </cfRule>
@@ -2055,24 +2542,25 @@
       <formula>33</formula>
       <formula>43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>44</formula>
       <formula>54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
       <formula>55</formula>
       <formula>65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
       <formula>66</formula>
       <formula>76</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
       <formula>77</formula>
       <formula>87</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Rabu/Statistika/Minggu 3 - Distribusi Frekuensi/tugas/tugas.xlsx
+++ b/Rabu/Statistika/Minggu 3 - Distribusi Frekuensi/tugas/tugas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,60 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Iseplutpinur</author>
+  </authors>
+  <commentList>
+    <comment ref="AA2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Iseplutpinur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+FK&gt; Kelas sebelumnya dikurangi F Kelas sebelumnya</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Iseplutpinur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+FR&lt;, Dari nilai FR&lt; Kelas sebelumya ditambah FR kelas sebelumya</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76,12 +130,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,14 +166,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,14 +188,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -149,6 +195,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -157,68 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +225,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,19 +247,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -307,13 +365,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,109 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,24 +533,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,24 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,17 +633,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,22 +666,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,9 +707,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,162 +730,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -879,10 +937,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,54 +953,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Kepala 3" xfId="1" builtinId="18"/>
+    <cellStyle name="20% - Aksen2" xfId="2" builtinId="34"/>
+    <cellStyle name="Catatan" xfId="3" builtinId="10"/>
+    <cellStyle name="Koma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Koma" xfId="5" builtinId="3"/>
+    <cellStyle name="Mata Uang [0]" xfId="6" builtinId="7"/>
+    <cellStyle name="20% - Aksen4" xfId="7" builtinId="42"/>
+    <cellStyle name="Mata Uang" xfId="8" builtinId="4"/>
+    <cellStyle name="Sel Ditautkan" xfId="9" builtinId="24"/>
+    <cellStyle name="Persen" xfId="10" builtinId="5"/>
+    <cellStyle name="Kepala 4" xfId="11" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8"/>
+    <cellStyle name="20% - Aksen6" xfId="13" builtinId="50"/>
+    <cellStyle name="Total" xfId="14" builtinId="25"/>
+    <cellStyle name="Hyperlink yang Diikuti" xfId="15" builtinId="9"/>
+    <cellStyle name="Teks Peringatan" xfId="16" builtinId="11"/>
+    <cellStyle name="Kepala 2" xfId="17" builtinId="17"/>
+    <cellStyle name="Judul" xfId="18" builtinId="15"/>
+    <cellStyle name="Aksen3" xfId="19" builtinId="37"/>
+    <cellStyle name="Teks CExplanatory" xfId="20" builtinId="53"/>
+    <cellStyle name="Kepala 1" xfId="21" builtinId="16"/>
+    <cellStyle name="60% - Aksen2" xfId="22" builtinId="36"/>
+    <cellStyle name="input" xfId="23" builtinId="20"/>
     <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Perhitungan" xfId="25" builtinId="22"/>
+    <cellStyle name="Cek Sel" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - Aksen5" xfId="27" builtinId="46"/>
+    <cellStyle name="Baik" xfId="28" builtinId="26"/>
+    <cellStyle name="Buruk" xfId="29" builtinId="27"/>
+    <cellStyle name="Netral" xfId="30" builtinId="28"/>
+    <cellStyle name="Aksen1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Aksen1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% - Aksen1" xfId="33" builtinId="31"/>
+    <cellStyle name="60% - Aksen1" xfId="34" builtinId="32"/>
+    <cellStyle name="Aksen2" xfId="35" builtinId="33"/>
+    <cellStyle name="40% - Aksen2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - Aksen3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Aksen3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Aksen3" xfId="39" builtinId="40"/>
+    <cellStyle name="Aksen4" xfId="40" builtinId="41"/>
+    <cellStyle name="40% - Aksen4" xfId="41" builtinId="43"/>
+    <cellStyle name="60% - Aksen4" xfId="42" builtinId="44"/>
+    <cellStyle name="Aksen5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Aksen5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Aksen5" xfId="45" builtinId="48"/>
+    <cellStyle name="Aksen6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Aksen6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Aksen6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1406,13 +1465,13 @@
         <f>MAX(B2:K6)</f>
         <v>86</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="31">
         <v>22</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="33">
         <f>P3+10</f>
         <v>32</v>
       </c>
@@ -1497,14 +1556,14 @@
         <f>MIN(B2:K6)</f>
         <v>22</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="31">
         <f>R3+1</f>
         <v>33</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="33">
         <f>P4+10</f>
         <v>43</v>
       </c>
@@ -1543,7 +1602,7 @@
         <f>AA3-S3</f>
         <v>43</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AB4" s="28">
         <f>Y3+AB3</f>
         <v>0.14</v>
       </c>
@@ -1590,14 +1649,14 @@
         <f>N3-N4</f>
         <v>64</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="31">
         <f t="shared" ref="P5:P8" si="5">R4+1</f>
         <v>44</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="33">
         <f t="shared" ref="R5:R8" si="6">P5+10</f>
         <v>54</v>
       </c>
@@ -1636,7 +1695,7 @@
         <f t="shared" ref="AA5:AA8" si="8">AA4-S4</f>
         <v>37</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AB5" s="28">
         <f t="shared" ref="AB5:AB8" si="9">Y4+AB4</f>
         <v>0.26</v>
       </c>
@@ -1683,14 +1742,14 @@
         <f>1+(3.3*LOG(N2))</f>
         <v>6.60660101430886</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="31">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="33">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
@@ -1729,7 +1788,7 @@
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="AB6" s="27">
+      <c r="AB6" s="28">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -1746,14 +1805,14 @@
         <f>N5/N6</f>
         <v>9.68728092727047</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="31">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="32">
+      <c r="R7" s="33">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
@@ -1792,7 +1851,7 @@
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="AB7" s="27">
+      <c r="AB7" s="28">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
@@ -1802,14 +1861,14 @@
       </c>
     </row>
     <row r="8" ht="15.75" spans="16:29">
-      <c r="P8" s="31">
+      <c r="P8" s="32">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="34">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
@@ -1848,7 +1907,7 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AB8" s="27">
+      <c r="AB8" s="28">
         <f t="shared" si="9"/>
         <v>0.94</v>
       </c>
@@ -1862,37 +1921,37 @@
         <f>SUM(S3:S8)</f>
         <v>50</v>
       </c>
-      <c r="Y9" s="28"/>
+      <c r="Y9" s="29"/>
     </row>
     <row r="11" spans="25:29">
-      <c r="Y11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
+      <c r="Y11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
     </row>
     <row r="12" spans="25:29">
-      <c r="Y12" s="29"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="29"/>
+      <c r="Y12" s="30"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="30"/>
     </row>
     <row r="13" spans="25:29">
-      <c r="Y13" s="29"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="29"/>
+      <c r="Y13" s="30"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="30"/>
     </row>
     <row r="14" spans="25:29">
-      <c r="Y14" s="29"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="29"/>
+      <c r="Y14" s="30"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="30"/>
     </row>
     <row r="15" spans="25:29">
-      <c r="Y15" s="29"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="29"/>
+      <c r="Y15" s="30"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="30"/>
     </row>
     <row r="16" spans="25:29">
-      <c r="Y16" s="29"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="29"/>
+      <c r="Y16" s="30"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1909,8 +1968,8 @@
   <sheetPr/>
   <dimension ref="B2:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2056,11 +2115,11 @@
         <v>7</v>
       </c>
       <c r="T3" s="15">
-        <f t="shared" ref="T3:T8" si="0">P3</f>
+        <f>P3</f>
         <v>22</v>
       </c>
       <c r="U3" s="15">
-        <f t="shared" ref="U3:U8" si="1">R3</f>
+        <f t="shared" ref="U3:U8" si="0">R3</f>
         <v>32</v>
       </c>
       <c r="V3" s="15">
@@ -2068,7 +2127,7 @@
         <v>21.5</v>
       </c>
       <c r="W3" s="15">
-        <f t="shared" ref="W3:W8" si="2">R3+0.5</f>
+        <f t="shared" ref="W3:W8" si="1">R3+0.5</f>
         <v>32.5</v>
       </c>
       <c r="X3" s="15">
@@ -2076,7 +2135,7 @@
         <v>7</v>
       </c>
       <c r="Y3" s="26">
-        <f t="shared" ref="Y3:Y8" si="3">S3/$S$9*100%</f>
+        <f t="shared" ref="Y3:Y8" si="2">S3/$S$9*100%</f>
         <v>0.14</v>
       </c>
       <c r="Z3" s="15">
@@ -2090,7 +2149,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="26">
+      <c r="AC3" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2147,11 +2206,11 @@
         <v>6</v>
       </c>
       <c r="T4" s="15">
+        <f t="shared" ref="T3:T8" si="3">P4</f>
+        <v>33</v>
+      </c>
+      <c r="U4" s="15">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="U4" s="15">
-        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="V4" s="15">
@@ -2159,7 +2218,7 @@
         <v>32.5</v>
       </c>
       <c r="W4" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43.5</v>
       </c>
       <c r="X4" s="15">
@@ -2167,7 +2226,7 @@
         <v>13</v>
       </c>
       <c r="Y4" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
       <c r="Z4" s="15">
@@ -2178,7 +2237,7 @@
         <f>AA3-S3</f>
         <v>43</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AB4" s="28">
         <f>Y3+AB3</f>
         <v>0.14</v>
       </c>
@@ -2240,11 +2299,11 @@
         <v>12</v>
       </c>
       <c r="T5" s="15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="U5" s="15">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="U5" s="15">
-        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="V5" s="15">
@@ -2252,15 +2311,15 @@
         <v>43.5</v>
       </c>
       <c r="W5" s="15">
+        <f t="shared" si="1"/>
+        <v>54.5</v>
+      </c>
+      <c r="X5" s="15">
+        <f>X4+S5</f>
+        <v>25</v>
+      </c>
+      <c r="Y5" s="26">
         <f t="shared" si="2"/>
-        <v>54.5</v>
-      </c>
-      <c r="X5" s="15">
-        <f t="shared" ref="X5:X8" si="7">X4+S5</f>
-        <v>25</v>
-      </c>
-      <c r="Y5" s="26">
-        <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
       <c r="Z5" s="15">
@@ -2268,15 +2327,15 @@
         <v>13</v>
       </c>
       <c r="AA5" s="15">
-        <f t="shared" ref="AA5:AA8" si="8">AA4-S4</f>
+        <f>AA4-S4</f>
         <v>37</v>
       </c>
-      <c r="AB5" s="27">
-        <f t="shared" ref="AB5:AB8" si="9">Y4+AB4</f>
+      <c r="AB5" s="28">
+        <f t="shared" ref="AB5:AB8" si="7">Y4+AB4</f>
         <v>0.26</v>
       </c>
       <c r="AC5" s="26">
-        <f t="shared" ref="AC5:AC8" si="10">AC4-Y4</f>
+        <f t="shared" ref="AC5:AC8" si="8">AC4-Y4</f>
         <v>0.74</v>
       </c>
     </row>
@@ -2333,11 +2392,11 @@
         <v>10</v>
       </c>
       <c r="T6" s="15">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="U6" s="15">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="U6" s="15">
-        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="V6" s="15">
@@ -2345,31 +2404,31 @@
         <v>54.5</v>
       </c>
       <c r="W6" s="15">
+        <f t="shared" si="1"/>
+        <v>65.5</v>
+      </c>
+      <c r="X6" s="15">
+        <f>X5+S6</f>
+        <v>35</v>
+      </c>
+      <c r="Y6" s="26">
         <f t="shared" si="2"/>
-        <v>65.5</v>
-      </c>
-      <c r="X6" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="Z6" s="15">
+        <f t="shared" ref="Z6:Z8" si="9">S5+Z5</f>
+        <v>25</v>
+      </c>
+      <c r="AA6" s="15">
+        <f>AA5-S5</f>
+        <v>25</v>
+      </c>
+      <c r="AB6" s="28">
         <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="Y6" s="26">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="Z6" s="15">
-        <f t="shared" ref="Z6:Z8" si="11">S5+Z5</f>
-        <v>25</v>
-      </c>
-      <c r="AA6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="AC6" s="26">
         <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="AB6" s="27">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="AC6" s="26">
-        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2396,11 +2455,11 @@
         <v>12</v>
       </c>
       <c r="T7" s="15">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="U7" s="15">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="U7" s="15">
-        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="V7" s="15">
@@ -2408,31 +2467,31 @@
         <v>65.5</v>
       </c>
       <c r="W7" s="15">
+        <f t="shared" si="1"/>
+        <v>76.5</v>
+      </c>
+      <c r="X7" s="15">
+        <f>X6+S7</f>
+        <v>47</v>
+      </c>
+      <c r="Y7" s="26">
         <f t="shared" si="2"/>
-        <v>76.5</v>
-      </c>
-      <c r="X7" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="Z7" s="15">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AA7" s="15">
+        <f>AA6-S6</f>
+        <v>15</v>
+      </c>
+      <c r="AB7" s="28">
         <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
-      <c r="Y7" s="26">
-        <f t="shared" si="3"/>
-        <v>0.24</v>
-      </c>
-      <c r="Z7" s="15">
-        <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="AA7" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="AC7" s="26">
         <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="AB7" s="27">
-        <f t="shared" si="9"/>
-        <v>0.7</v>
-      </c>
-      <c r="AC7" s="26">
-        <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
     </row>
@@ -2452,11 +2511,11 @@
         <v>3</v>
       </c>
       <c r="T8" s="15">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="U8" s="15">
         <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="U8" s="15">
-        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="V8" s="15">
@@ -2464,31 +2523,31 @@
         <v>76.5</v>
       </c>
       <c r="W8" s="15">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+      <c r="X8" s="15">
+        <f>X7+S8</f>
+        <v>50</v>
+      </c>
+      <c r="Y8" s="26">
         <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-      <c r="X8" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="Z8" s="15">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="AA8" s="15">
+        <f>AA7-S7</f>
+        <v>3</v>
+      </c>
+      <c r="AB8" s="28">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="Y8" s="26">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="Z8" s="15">
-        <f t="shared" si="11"/>
-        <v>47</v>
-      </c>
-      <c r="AA8" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="AC8" s="26">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AB8" s="27">
-        <f t="shared" si="9"/>
-        <v>0.94</v>
-      </c>
-      <c r="AC8" s="26">
-        <f t="shared" si="10"/>
         <v>0.06</v>
       </c>
     </row>
@@ -2497,37 +2556,37 @@
         <f>SUM(S3:S8)</f>
         <v>50</v>
       </c>
-      <c r="Y9" s="28"/>
+      <c r="Y9" s="29"/>
     </row>
     <row r="11" spans="25:29">
-      <c r="Y11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
+      <c r="Y11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
     </row>
     <row r="12" spans="25:29">
-      <c r="Y12" s="29"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="29"/>
+      <c r="Y12" s="30"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="30"/>
     </row>
     <row r="13" spans="25:29">
-      <c r="Y13" s="29"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="29"/>
+      <c r="Y13" s="30"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="30"/>
     </row>
     <row r="14" spans="25:29">
-      <c r="Y14" s="29"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="29"/>
+      <c r="Y14" s="30"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="30"/>
     </row>
     <row r="15" spans="25:29">
-      <c r="Y15" s="29"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="29"/>
+      <c r="Y15" s="30"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="30"/>
     </row>
     <row r="16" spans="25:29">
-      <c r="Y16" s="29"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="29"/>
+      <c r="Y16" s="30"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2562,5 +2621,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>